--- a/data/excel/goNowFlight.xlsx
+++ b/data/excel/goNowFlight.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\GoNow\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4C48F-8FBC-4433-B600-B539612FAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="25" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +35,80 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Shubham Natkar</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{0A76BA44-00D9-43F7-B3D2-00B817876960}">
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shubham Natkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No of Preferred airline</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shubham Natkar</author>
+  </authors>
+  <commentList>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shubham Natkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No of Preferred airline</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shubham Natkar</author>
+  </authors>
+  <commentList>
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="132">
   <si>
     <t>Source</t>
   </si>
@@ -419,12 +488,57 @@
   </si>
   <si>
     <t>Test Flight 3</t>
+  </si>
+  <si>
+    <t>//www.gonowtravel.com.au/</t>
+  </si>
+  <si>
+    <t>21-November-2023</t>
+  </si>
+  <si>
+    <t>25-November-2023</t>
+  </si>
+  <si>
+    <t>Delhi, India - Indira Gandhi Int'l Airport (DEL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Flight One way trip for domestic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Flight One way trip for International </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Flight Round trip for domestic </t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>syd</t>
+  </si>
+  <si>
+    <t>Sydney, Australia - All Airports (SYD)</t>
+  </si>
+  <si>
+    <t>mel</t>
+  </si>
+  <si>
+    <t>Melbourne, Australia - All Airports (MEL)</t>
+  </si>
+  <si>
+    <t>Verify Flight Round trip for International</t>
+  </si>
+  <si>
+    <t>RoundTrip</t>
+  </si>
+  <si>
+    <t>Test Flight 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -563,6 +677,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -877,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CF68F0-E7BB-4F2B-AB29-8700CDD3B013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,65 +1844,1696 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ4" xr:uid="{BE90452D-9FCD-41B5-A192-2BEFED4C44C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ4">
       <formula1>"Delhi,Western Australia,Victoria,Tasmania,South Australia,QUEENSLAND,Northern Territory,New South Wales,Maharashtra,AUSTRALIAN CA TERR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U4" xr:uid="{32217AB7-09B6-4AC0-8D41-E6B18757CEC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U4">
       <formula1>"AUD,USD,INR,EUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{DD7D2122-E8FD-4B95-9940-085B9D8DA618}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"HomeLogIn,Guest,CheckoutPageLogIn"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{D796872C-B35A-4D39-A80B-1DC00EBA6B2F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Z4 T2:T4" xr:uid="{71E6E8C9-0F36-4C40-A765-29FA9864D261}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Z4 T2:T4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V4" xr:uid="{2FA6FBB7-EB6D-41B5-B7B7-2EC56830283B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V4">
       <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4" xr:uid="{07BBA120-3590-4EC9-9323-1B3A2C6C765A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S4" xr:uid="{D8ADBF62-4FAC-4C82-865F-22757BDD67D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S4">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA4" xr:uid="{B09A3D1C-1BE2-4FED-978F-BBE6BD785C37}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA4">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA4" xr:uid="{3FD4226C-1DA5-4AE2-B374-2722EE7ACEFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA4">
       <formula1>"MasterCard,VisaCard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB4" xr:uid="{8A82257E-7D39-4CDF-A1A7-E24B688A3755}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB4">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{4A8534B5-CA56-4F83-8540-2A14E68EC27C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF4" xr:uid="{9A522898-79D5-4C0A-ADEF-49AB62B2F2EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF4">
       <formula1>"Mr,Mrs,Miss,Ms"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{4FFB0A35-8CDA-49AE-9CD2-B020184CC20A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{B5ACB983-BDBF-41AA-B635-345D94EFDEEE}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{0B147C88-8D93-4537-B30E-06B39D9B90D7}"/>
-    <hyperlink ref="AF2" r:id="rId3" xr:uid="{B95F9982-612A-4576-ABF9-8BC9999A20A4}"/>
-    <hyperlink ref="BH2" r:id="rId4" xr:uid="{E611E593-1947-4378-85D0-B4C8C0418D6B}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{098930A8-6AC4-4915-A114-8D179D68A1CA}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{10CA0C62-B352-44B9-92C5-19F1917416C2}"/>
-    <hyperlink ref="AF3" r:id="rId7" xr:uid="{31A0ED20-248D-4A33-9F4D-484201C593B2}"/>
-    <hyperlink ref="BH3" r:id="rId8" xr:uid="{48869B4F-03F6-40EB-94DC-239D2ECB82FC}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{41E246A5-8BA2-42BB-B387-0E323135FC54}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{1835CC1B-58BF-4089-880D-97F496D96B78}"/>
-    <hyperlink ref="AF4" r:id="rId11" xr:uid="{918CEDDC-8A0D-414B-A4E9-E070CF88A863}"/>
-    <hyperlink ref="BH4" r:id="rId12" xr:uid="{CDF56FF6-6430-48D4-98B1-9209AC22331F}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="AF2" r:id="rId3"/>
+    <hyperlink ref="BH2" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="AF3" r:id="rId7"/>
+    <hyperlink ref="BH3" r:id="rId8"/>
+    <hyperlink ref="G4" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="AF4" r:id="rId11"/>
+    <hyperlink ref="BH4" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <legacyDrawing r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>122001</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2">
+      <formula1>"Mr,Mrs,Miss,Ms"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2">
+      <formula1>"MasterCard,VisaCard"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+      <formula1>"Refundable,Non-Refundable,All"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S2">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Z2 T2">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"HomeLogIn,Guest,CheckoutPageLogIn"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"AUD,USD,INR,EUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2">
+      <formula1>"Delhi,Western Australia,Victoria,Tasmania,South Australia,QUEENSLAND,Northern Territory,New South Wales,Maharashtra,AUSTRALIAN CA TERR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="AF2" r:id="rId3"/>
+    <hyperlink ref="BH2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BC8" sqref="BC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>122001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>123</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>122001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>123</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>122001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>123</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>122001</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ5">
+      <formula1>"Delhi,Western Australia,Victoria,Tasmania,South Australia,QUEENSLAND,Northern Territory,New South Wales,Maharashtra,AUSTRALIAN CA TERR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U5">
+      <formula1>"AUD,USD,INR,EUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>"HomeLogIn,Guest,CheckoutPageLogIn"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Z5 T2:T5">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V5">
+      <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W5">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S5">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA5">
+      <formula1>"Refundable,Non-Refundable,All"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA5">
+      <formula1>"MasterCard,VisaCard"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB5">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BF5">
+      <formula1>"Mr,Mrs,Miss,Ms"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="AF2" r:id="rId3"/>
+    <hyperlink ref="BH2" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="AF3" r:id="rId7"/>
+    <hyperlink ref="BH3" r:id="rId8"/>
+    <hyperlink ref="G4" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="AF4" r:id="rId11"/>
+    <hyperlink ref="BH4" r:id="rId12"/>
+    <hyperlink ref="G5" r:id="rId13"/>
+    <hyperlink ref="H5" r:id="rId14"/>
+    <hyperlink ref="AF5" r:id="rId15"/>
+    <hyperlink ref="BH5" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
+</worksheet>
 </file>